--- a/data/Cutdown.xlsx
+++ b/data/Cutdown.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blabbyduck/Desktop/Y3S2/DSA4213/LLMasters/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiaying\OneDrive\Documents\NUS\2023.2024\Sem2\DSA4213\Project\LLMasters\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75747B3E-4DE6-2143-9D58-B0C25B9FD62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD63C41D-8050-4D8B-858E-73F553C9657A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="2280" windowWidth="27640" windowHeight="16940" xr2:uid="{029BF618-3604-BB49-B3D9-E5DDF78CA4EE}"/>
+    <workbookView xWindow="4320" yWindow="4155" windowWidth="23955" windowHeight="11835" xr2:uid="{029BF618-3604-BB49-B3D9-E5DDF78CA4EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4419,13 +4419,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D95B7D-2868-2F43-9E31-BACE0287DC84}">
   <dimension ref="A1:M593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A557" workbookViewId="0">
-      <selection activeCell="C582" sqref="C582"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="66.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4466,7 +4471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4507,7 +4512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -4548,7 +4553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -4589,7 +4594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -4630,7 +4635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -4671,7 +4676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -4712,7 +4717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -4753,7 +4758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -4794,7 +4799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -4835,7 +4840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -4876,7 +4881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -4917,7 +4922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -4958,7 +4963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -4999,7 +5004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -5040,7 +5045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -5081,7 +5086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -5122,7 +5127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -5163,7 +5168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -5204,7 +5209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -5245,7 +5250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -5286,7 +5291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -5327,7 +5332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -5368,7 +5373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -5409,7 +5414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -5450,7 +5455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -5491,7 +5496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -5532,7 +5537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -5573,7 +5578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -5614,7 +5619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -5655,7 +5660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -5696,7 +5701,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -5737,7 +5742,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -5778,7 +5783,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -5819,7 +5824,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -5860,7 +5865,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -5901,7 +5906,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -5942,7 +5947,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -5983,7 +5988,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -6024,7 +6029,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -6065,7 +6070,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -6106,7 +6111,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -6147,7 +6152,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -6188,7 +6193,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>74</v>
       </c>
@@ -6229,7 +6234,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>74</v>
       </c>
@@ -6270,7 +6275,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>104</v>
       </c>
@@ -6311,7 +6316,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>107</v>
       </c>
@@ -6352,7 +6357,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -6393,7 +6398,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>107</v>
       </c>
@@ -6434,7 +6439,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -6475,7 +6480,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>104</v>
       </c>
@@ -6516,7 +6521,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>74</v>
       </c>
@@ -6557,7 +6562,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>78</v>
       </c>
@@ -6598,7 +6603,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -6639,7 +6644,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>117</v>
       </c>
@@ -6680,7 +6685,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>107</v>
       </c>
@@ -6721,7 +6726,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>120</v>
       </c>
@@ -6762,7 +6767,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>74</v>
       </c>
@@ -6803,7 +6808,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>107</v>
       </c>
@@ -6844,7 +6849,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -6885,7 +6890,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>127</v>
       </c>
@@ -6926,7 +6931,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>130</v>
       </c>
@@ -6967,7 +6972,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>133</v>
       </c>
@@ -7008,7 +7013,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>136</v>
       </c>
@@ -7049,7 +7054,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>139</v>
       </c>
@@ -7090,7 +7095,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>142</v>
       </c>
@@ -7131,7 +7136,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>145</v>
       </c>
@@ -7172,7 +7177,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>130</v>
       </c>
@@ -7213,7 +7218,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>145</v>
       </c>
@@ -7254,7 +7259,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>151</v>
       </c>
@@ -7295,7 +7300,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>154</v>
       </c>
@@ -7336,7 +7341,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>139</v>
       </c>
@@ -7377,7 +7382,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>158</v>
       </c>
@@ -7418,7 +7423,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>160</v>
       </c>
@@ -7459,7 +7464,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>145</v>
       </c>
@@ -7500,7 +7505,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>165</v>
       </c>
@@ -7541,7 +7546,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>167</v>
       </c>
@@ -7582,7 +7587,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>170</v>
       </c>
@@ -7623,7 +7628,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>173</v>
       </c>
@@ -7664,7 +7669,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>145</v>
       </c>
@@ -7705,7 +7710,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>145</v>
       </c>
@@ -7746,7 +7751,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>160</v>
       </c>
@@ -7787,7 +7792,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>180</v>
       </c>
@@ -7828,7 +7833,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>183</v>
       </c>
@@ -7869,7 +7874,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>133</v>
       </c>
@@ -7910,7 +7915,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>130</v>
       </c>
@@ -7951,7 +7956,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>173</v>
       </c>
@@ -7992,7 +7997,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>190</v>
       </c>
@@ -8033,7 +8038,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>190</v>
       </c>
@@ -8074,7 +8079,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>195</v>
       </c>
@@ -8115,7 +8120,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>160</v>
       </c>
@@ -8156,7 +8161,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>160</v>
       </c>
@@ -8197,7 +8202,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>190</v>
       </c>
@@ -8238,7 +8243,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>160</v>
       </c>
@@ -8279,7 +8284,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>190</v>
       </c>
@@ -8320,7 +8325,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>204</v>
       </c>
@@ -8361,7 +8366,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>204</v>
       </c>
@@ -8402,7 +8407,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>204</v>
       </c>
@@ -8443,7 +8448,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>208</v>
       </c>
@@ -8484,7 +8489,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>210</v>
       </c>
@@ -8525,7 +8530,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>208</v>
       </c>
@@ -8566,7 +8571,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>208</v>
       </c>
@@ -8607,7 +8612,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>208</v>
       </c>
@@ -8648,7 +8653,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>208</v>
       </c>
@@ -8689,7 +8694,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>208</v>
       </c>
@@ -8730,7 +8735,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>208</v>
       </c>
@@ -8771,7 +8776,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>208</v>
       </c>
@@ -8812,7 +8817,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>208</v>
       </c>
@@ -8853,7 +8858,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>221</v>
       </c>
@@ -8894,7 +8899,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>208</v>
       </c>
@@ -8935,7 +8940,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>208</v>
       </c>
@@ -8976,7 +8981,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>208</v>
       </c>
@@ -9017,7 +9022,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>81</v>
       </c>
@@ -9058,7 +9063,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>227</v>
       </c>
@@ -9099,7 +9104,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>227</v>
       </c>
@@ -9140,7 +9145,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>227</v>
       </c>
@@ -9181,7 +9186,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>234</v>
       </c>
@@ -9222,7 +9227,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>97</v>
       </c>
@@ -9263,7 +9268,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>236</v>
       </c>
@@ -9304,7 +9309,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>227</v>
       </c>
@@ -9345,7 +9350,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>227</v>
       </c>
@@ -9386,7 +9391,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>227</v>
       </c>
@@ -9427,7 +9432,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>227</v>
       </c>
@@ -9468,7 +9473,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>227</v>
       </c>
@@ -9509,7 +9514,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>243</v>
       </c>
@@ -9550,7 +9555,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>247</v>
       </c>
@@ -9591,7 +9596,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>247</v>
       </c>
@@ -9632,7 +9637,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>247</v>
       </c>
@@ -9673,7 +9678,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>247</v>
       </c>
@@ -9714,7 +9719,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>247</v>
       </c>
@@ -9755,7 +9760,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>247</v>
       </c>
@@ -9796,7 +9801,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>247</v>
       </c>
@@ -9837,7 +9842,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>255</v>
       </c>
@@ -9878,7 +9883,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>258</v>
       </c>
@@ -9919,7 +9924,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>260</v>
       </c>
@@ -9960,7 +9965,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>263</v>
       </c>
@@ -10001,7 +10006,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>266</v>
       </c>
@@ -10042,7 +10047,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>266</v>
       </c>
@@ -10083,7 +10088,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>266</v>
       </c>
@@ -10124,7 +10129,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>266</v>
       </c>
@@ -10165,7 +10170,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>266</v>
       </c>
@@ -10206,7 +10211,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>274</v>
       </c>
@@ -10247,7 +10252,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>277</v>
       </c>
@@ -10288,7 +10293,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>266</v>
       </c>
@@ -10329,7 +10334,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>281</v>
       </c>
@@ -10370,7 +10375,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>260</v>
       </c>
@@ -10411,7 +10416,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>285</v>
       </c>
@@ -10452,7 +10457,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>288</v>
       </c>
@@ -10493,7 +10498,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>290</v>
       </c>
@@ -10534,7 +10539,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>290</v>
       </c>
@@ -10575,7 +10580,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>295</v>
       </c>
@@ -10616,7 +10621,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>260</v>
       </c>
@@ -10657,7 +10662,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>290</v>
       </c>
@@ -10698,7 +10703,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>290</v>
       </c>
@@ -10739,7 +10744,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>302</v>
       </c>
@@ -10780,7 +10785,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>305</v>
       </c>
@@ -10821,7 +10826,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>308</v>
       </c>
@@ -10862,7 +10867,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>311</v>
       </c>
@@ -10903,7 +10908,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>302</v>
       </c>
@@ -10944,7 +10949,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>316</v>
       </c>
@@ -10985,7 +10990,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>319</v>
       </c>
@@ -11026,7 +11031,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>322</v>
       </c>
@@ -11067,7 +11072,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>325</v>
       </c>
@@ -11108,7 +11113,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>327</v>
       </c>
@@ -11149,7 +11154,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>330</v>
       </c>
@@ -11190,7 +11195,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>330</v>
       </c>
@@ -11231,7 +11236,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>334</v>
       </c>
@@ -11272,7 +11277,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>330</v>
       </c>
@@ -11313,7 +11318,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>338</v>
       </c>
@@ -11354,7 +11359,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>341</v>
       </c>
@@ -11395,7 +11400,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>343</v>
       </c>
@@ -11436,7 +11441,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>345</v>
       </c>
@@ -11477,7 +11482,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>348</v>
       </c>
@@ -11518,7 +11523,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>351</v>
       </c>
@@ -11559,7 +11564,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>316</v>
       </c>
@@ -11600,7 +11605,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>355</v>
       </c>
@@ -11641,7 +11646,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>334</v>
       </c>
@@ -11682,7 +11687,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>359</v>
       </c>
@@ -11723,7 +11728,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>361</v>
       </c>
@@ -11764,7 +11769,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>316</v>
       </c>
@@ -11805,7 +11810,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>316</v>
       </c>
@@ -11846,7 +11851,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>366</v>
       </c>
@@ -11887,7 +11892,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>316</v>
       </c>
@@ -11928,7 +11933,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>366</v>
       </c>
@@ -11969,7 +11974,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>316</v>
       </c>
@@ -12010,7 +12015,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>373</v>
       </c>
@@ -12051,7 +12056,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>316</v>
       </c>
@@ -12092,7 +12097,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>316</v>
       </c>
@@ -12133,7 +12138,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>341</v>
       </c>
@@ -12174,7 +12179,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>379</v>
       </c>
@@ -12215,7 +12220,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>381</v>
       </c>
@@ -12256,7 +12261,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>316</v>
       </c>
@@ -12297,7 +12302,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>316</v>
       </c>
@@ -12338,7 +12343,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>316</v>
       </c>
@@ -12379,7 +12384,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>334</v>
       </c>
@@ -12420,7 +12425,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>316</v>
       </c>
@@ -12461,7 +12466,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>316</v>
       </c>
@@ -12502,7 +12507,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>390</v>
       </c>
@@ -12543,7 +12548,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>390</v>
       </c>
@@ -12584,7 +12589,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>390</v>
       </c>
@@ -12625,7 +12630,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>396</v>
       </c>
@@ -12666,7 +12671,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>398</v>
       </c>
@@ -12707,7 +12712,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>390</v>
       </c>
@@ -12748,7 +12753,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>401</v>
       </c>
@@ -12789,7 +12794,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>403</v>
       </c>
@@ -12830,7 +12835,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>322</v>
       </c>
@@ -12871,7 +12876,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>408</v>
       </c>
@@ -12912,7 +12917,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>411</v>
       </c>
@@ -12953,7 +12958,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>414</v>
       </c>
@@ -12994,7 +12999,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>338</v>
       </c>
@@ -13035,7 +13040,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>417</v>
       </c>
@@ -13076,7 +13081,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>420</v>
       </c>
@@ -13117,7 +13122,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>423</v>
       </c>
@@ -13158,7 +13163,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>425</v>
       </c>
@@ -13199,7 +13204,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>427</v>
       </c>
@@ -13240,7 +13245,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>330</v>
       </c>
@@ -13281,7 +13286,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>431</v>
       </c>
@@ -13322,7 +13327,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>434</v>
       </c>
@@ -13363,7 +13368,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>437</v>
       </c>
@@ -13404,7 +13409,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>319</v>
       </c>
@@ -13445,7 +13450,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>351</v>
       </c>
@@ -13486,7 +13491,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>319</v>
       </c>
@@ -13527,7 +13532,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>444</v>
       </c>
@@ -13568,7 +13573,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>330</v>
       </c>
@@ -13609,7 +13614,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>361</v>
       </c>
@@ -13650,7 +13655,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>449</v>
       </c>
@@ -13691,7 +13696,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>322</v>
       </c>
@@ -13732,7 +13737,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>453</v>
       </c>
@@ -13773,7 +13778,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>311</v>
       </c>
@@ -13814,7 +13819,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>319</v>
       </c>
@@ -13855,7 +13860,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>396</v>
       </c>
@@ -13896,7 +13901,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>461</v>
       </c>
@@ -13937,7 +13942,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>464</v>
       </c>
@@ -13978,7 +13983,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>396</v>
       </c>
@@ -14019,7 +14024,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>468</v>
       </c>
@@ -14060,7 +14065,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>390</v>
       </c>
@@ -14101,7 +14106,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>316</v>
       </c>
@@ -14142,7 +14147,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>319</v>
       </c>
@@ -14183,7 +14188,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>316</v>
       </c>
@@ -14224,7 +14229,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>396</v>
       </c>
@@ -14265,7 +14270,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>476</v>
       </c>
@@ -14306,7 +14311,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>316</v>
       </c>
@@ -14347,7 +14352,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>302</v>
       </c>
@@ -14388,7 +14393,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>316</v>
       </c>
@@ -14429,7 +14434,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>482</v>
       </c>
@@ -14470,7 +14475,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>341</v>
       </c>
@@ -14511,7 +14516,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>316</v>
       </c>
@@ -14552,7 +14557,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>396</v>
       </c>
@@ -14593,7 +14598,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>487</v>
       </c>
@@ -14634,7 +14639,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>491</v>
       </c>
@@ -14675,7 +14680,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>494</v>
       </c>
@@ -14716,7 +14721,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>497</v>
       </c>
@@ -14757,7 +14762,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>500</v>
       </c>
@@ -14798,7 +14803,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>503</v>
       </c>
@@ -14839,7 +14844,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>500</v>
       </c>
@@ -14880,7 +14885,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>507</v>
       </c>
@@ -14921,7 +14926,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>510</v>
       </c>
@@ -14962,7 +14967,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>513</v>
       </c>
@@ -15003,7 +15008,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>497</v>
       </c>
@@ -15044,7 +15049,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>518</v>
       </c>
@@ -15085,7 +15090,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>510</v>
       </c>
@@ -15126,7 +15131,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>523</v>
       </c>
@@ -15167,7 +15172,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>497</v>
       </c>
@@ -15208,7 +15213,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>528</v>
       </c>
@@ -15249,7 +15254,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>531</v>
       </c>
@@ -15290,7 +15295,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>534</v>
       </c>
@@ -15331,7 +15336,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>536</v>
       </c>
@@ -15372,7 +15377,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>538</v>
       </c>
@@ -15413,7 +15418,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>540</v>
       </c>
@@ -15454,7 +15459,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>543</v>
       </c>
@@ -15495,7 +15500,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>546</v>
       </c>
@@ -15536,7 +15541,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>548</v>
       </c>
@@ -15577,7 +15582,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>552</v>
       </c>
@@ -15618,7 +15623,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>555</v>
       </c>
@@ -15659,7 +15664,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>558</v>
       </c>
@@ -15700,7 +15705,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>561</v>
       </c>
@@ -15741,7 +15746,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>564</v>
       </c>
@@ -15782,7 +15787,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>567</v>
       </c>
@@ -15823,7 +15828,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>570</v>
       </c>
@@ -15864,7 +15869,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>573</v>
       </c>
@@ -15905,7 +15910,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>576</v>
       </c>
@@ -15946,7 +15951,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>567</v>
       </c>
@@ -15987,7 +15992,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>581</v>
       </c>
@@ -16028,7 +16033,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>584</v>
       </c>
@@ -16069,7 +16074,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>587</v>
       </c>
@@ -16110,7 +16115,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>567</v>
       </c>
@@ -16151,7 +16156,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>573</v>
       </c>
@@ -16192,7 +16197,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>593</v>
       </c>
@@ -16233,7 +16238,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>597</v>
       </c>
@@ -16274,7 +16279,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>600</v>
       </c>
@@ -16315,7 +16320,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>603</v>
       </c>
@@ -16356,7 +16361,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>606</v>
       </c>
@@ -16397,7 +16402,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>609</v>
       </c>
@@ -16438,7 +16443,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>612</v>
       </c>
@@ -16479,7 +16484,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>615</v>
       </c>
@@ -16520,7 +16525,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>618</v>
       </c>
@@ -16561,7 +16566,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>621</v>
       </c>
@@ -16602,7 +16607,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>624</v>
       </c>
@@ -16643,7 +16648,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>627</v>
       </c>
@@ -16684,7 +16689,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>597</v>
       </c>
@@ -16725,7 +16730,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>631</v>
       </c>
@@ -16766,7 +16771,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>634</v>
       </c>
@@ -16807,7 +16812,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>636</v>
       </c>
@@ -16848,7 +16853,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>639</v>
       </c>
@@ -16889,7 +16894,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>641</v>
       </c>
@@ -16930,7 +16935,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>644</v>
       </c>
@@ -16971,7 +16976,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>647</v>
       </c>
@@ -17012,7 +17017,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>650</v>
       </c>
@@ -17053,7 +17058,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>653</v>
       </c>
@@ -17094,7 +17099,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>656</v>
       </c>
@@ -17135,7 +17140,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>659</v>
       </c>
@@ -17176,7 +17181,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>593</v>
       </c>
@@ -17217,7 +17222,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>664</v>
       </c>
@@ -17258,7 +17263,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>667</v>
       </c>
@@ -17299,7 +17304,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>667</v>
       </c>
@@ -17340,7 +17345,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>667</v>
       </c>
@@ -17381,7 +17386,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>667</v>
       </c>
@@ -17422,7 +17427,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>667</v>
       </c>
@@ -17463,7 +17468,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>675</v>
       </c>
@@ -17504,7 +17509,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>678</v>
       </c>
@@ -17545,7 +17550,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>667</v>
       </c>
@@ -17586,7 +17591,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>667</v>
       </c>
@@ -17627,7 +17632,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>667</v>
       </c>
@@ -17668,7 +17673,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>667</v>
       </c>
@@ -17709,7 +17714,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>685</v>
       </c>
@@ -17750,7 +17755,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>667</v>
       </c>
@@ -17791,7 +17796,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>667</v>
       </c>
@@ -17832,7 +17837,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>690</v>
       </c>
@@ -17873,7 +17878,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>693</v>
       </c>
@@ -17914,7 +17919,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>696</v>
       </c>
@@ -17955,7 +17960,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>699</v>
       </c>
@@ -17996,7 +18001,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>701</v>
       </c>
@@ -18037,7 +18042,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>703</v>
       </c>
@@ -18078,7 +18083,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>3030</v>
       </c>
@@ -18119,7 +18124,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>707</v>
       </c>
@@ -18160,7 +18165,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>708</v>
       </c>
@@ -18201,7 +18206,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>711</v>
       </c>
@@ -18242,7 +18247,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>713</v>
       </c>
@@ -18283,7 +18288,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>716</v>
       </c>
@@ -18324,7 +18329,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>719</v>
       </c>
@@ -18365,7 +18370,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>722</v>
       </c>
@@ -18406,7 +18411,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>725</v>
       </c>
@@ -18447,7 +18452,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>728</v>
       </c>
@@ -18488,7 +18493,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>731</v>
       </c>
@@ -18529,7 +18534,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>733</v>
       </c>
@@ -18570,7 +18575,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>736</v>
       </c>
@@ -18611,7 +18616,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>739</v>
       </c>
@@ -18652,7 +18657,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>741</v>
       </c>
@@ -18693,7 +18698,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>744</v>
       </c>
@@ -18734,7 +18739,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>747</v>
       </c>
@@ -18775,7 +18780,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>749</v>
       </c>
@@ -18816,7 +18821,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>751</v>
       </c>
@@ -18857,7 +18862,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>753</v>
       </c>
@@ -18898,7 +18903,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>756</v>
       </c>
@@ -18939,7 +18944,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>759</v>
       </c>
@@ -18980,7 +18985,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>722</v>
       </c>
@@ -19021,7 +19026,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>722</v>
       </c>
@@ -19062,7 +19067,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>765</v>
       </c>
@@ -19103,7 +19108,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>768</v>
       </c>
@@ -19144,7 +19149,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>728</v>
       </c>
@@ -19185,7 +19190,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>722</v>
       </c>
@@ -19226,7 +19231,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>774</v>
       </c>
@@ -19267,7 +19272,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>778</v>
       </c>
@@ -19308,7 +19313,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>778</v>
       </c>
@@ -19349,7 +19354,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>782</v>
       </c>
@@ -19390,7 +19395,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>785</v>
       </c>
@@ -19431,7 +19436,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>788</v>
       </c>
@@ -19472,7 +19477,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>791</v>
       </c>
@@ -19513,7 +19518,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>794</v>
       </c>
@@ -19554,7 +19559,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>797</v>
       </c>
@@ -19595,7 +19600,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>800</v>
       </c>
@@ -19636,7 +19641,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>803</v>
       </c>
@@ -19677,7 +19682,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>806</v>
       </c>
@@ -19718,7 +19723,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>809</v>
       </c>
@@ -19759,7 +19764,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>812</v>
       </c>
@@ -19800,7 +19805,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>815</v>
       </c>
@@ -19841,7 +19846,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>815</v>
       </c>
@@ -19882,7 +19887,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>815</v>
       </c>
@@ -19923,7 +19928,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>815</v>
       </c>
@@ -19964,7 +19969,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>815</v>
       </c>
@@ -20005,7 +20010,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>815</v>
       </c>
@@ -20046,7 +20051,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>815</v>
       </c>
@@ -20087,7 +20092,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>815</v>
       </c>
@@ -20128,7 +20133,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>825</v>
       </c>
@@ -20169,7 +20174,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>829</v>
       </c>
@@ -20210,7 +20215,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>831</v>
       </c>
@@ -20251,7 +20256,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>834</v>
       </c>
@@ -20292,7 +20297,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>831</v>
       </c>
@@ -20333,7 +20338,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>839</v>
       </c>
@@ -20374,7 +20379,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>831</v>
       </c>
@@ -20415,7 +20420,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>834</v>
       </c>
@@ -20456,7 +20461,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>845</v>
       </c>
@@ -20497,7 +20502,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>848</v>
       </c>
@@ -20538,7 +20543,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>834</v>
       </c>
@@ -20579,7 +20584,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>834</v>
       </c>
@@ -20620,7 +20625,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>855</v>
       </c>
@@ -20661,7 +20666,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>834</v>
       </c>
@@ -20702,7 +20707,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>829</v>
       </c>
@@ -20743,7 +20748,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>848</v>
       </c>
@@ -20784,7 +20789,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>863</v>
       </c>
@@ -20825,7 +20830,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>845</v>
       </c>
@@ -20866,7 +20871,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>868</v>
       </c>
@@ -20907,7 +20912,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>872</v>
       </c>
@@ -20948,7 +20953,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>875</v>
       </c>
@@ -20989,7 +20994,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>878</v>
       </c>
@@ -21030,7 +21035,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>881</v>
       </c>
@@ -21071,7 +21076,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>884</v>
       </c>
@@ -21112,7 +21117,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>887</v>
       </c>
@@ -21153,7 +21158,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>890</v>
       </c>
@@ -21194,7 +21199,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>893</v>
       </c>
@@ -21235,7 +21240,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>896</v>
       </c>
@@ -21276,7 +21281,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>899</v>
       </c>
@@ -21317,7 +21322,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>902</v>
       </c>
@@ -21358,7 +21363,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>905</v>
       </c>
@@ -21399,7 +21404,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>908</v>
       </c>
@@ -21440,7 +21445,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>911</v>
       </c>
@@ -21481,7 +21486,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>914</v>
       </c>
@@ -21522,7 +21527,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>917</v>
       </c>
@@ -21563,7 +21568,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>920</v>
       </c>
@@ -21604,7 +21609,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>923</v>
       </c>
@@ -21645,7 +21650,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>926</v>
       </c>
@@ -21686,7 +21691,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>929</v>
       </c>
@@ -21727,7 +21732,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>932</v>
       </c>
@@ -21768,7 +21773,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>935</v>
       </c>
@@ -21809,7 +21814,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>938</v>
       </c>
@@ -21850,7 +21855,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>941</v>
       </c>
@@ -21891,7 +21896,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>944</v>
       </c>
@@ -21932,7 +21937,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>947</v>
       </c>
@@ -21973,7 +21978,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>949</v>
       </c>
@@ -22014,7 +22019,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>951</v>
       </c>
@@ -22055,7 +22060,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>954</v>
       </c>
@@ -22096,7 +22101,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>956</v>
       </c>
@@ -22137,7 +22142,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>944</v>
       </c>
@@ -22178,7 +22183,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>960</v>
       </c>
@@ -22219,7 +22224,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>962</v>
       </c>
@@ -22260,7 +22265,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>963</v>
       </c>
@@ -22301,7 +22306,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>965</v>
       </c>
@@ -22342,7 +22347,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>963</v>
       </c>
@@ -22383,7 +22388,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>968</v>
       </c>
@@ -22424,7 +22429,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>971</v>
       </c>
@@ -22465,7 +22470,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>973</v>
       </c>
@@ -22506,7 +22511,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>975</v>
       </c>
@@ -22547,7 +22552,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>978</v>
       </c>
@@ -22588,7 +22593,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>973</v>
       </c>
@@ -22629,7 +22634,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>982</v>
       </c>
@@ -22670,7 +22675,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>984</v>
       </c>
@@ -22711,7 +22716,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>987</v>
       </c>
@@ -22752,7 +22757,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>989</v>
       </c>
@@ -22793,7 +22798,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>975</v>
       </c>
@@ -22834,7 +22839,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>991</v>
       </c>
@@ -22875,7 +22880,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>944</v>
       </c>
@@ -22916,7 +22921,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>996</v>
       </c>
@@ -22957,7 +22962,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>999</v>
       </c>
@@ -22998,7 +23003,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1002</v>
       </c>
@@ -23039,7 +23044,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>1006</v>
       </c>
@@ -23080,7 +23085,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>1009</v>
       </c>
@@ -23121,7 +23126,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>1012</v>
       </c>
@@ -23162,7 +23167,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>1015</v>
       </c>
@@ -23203,7 +23208,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>1018</v>
       </c>
@@ -23244,7 +23249,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>1021</v>
       </c>
@@ -23285,7 +23290,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>1024</v>
       </c>
@@ -23326,7 +23331,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>1027</v>
       </c>
@@ -23367,7 +23372,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>1030</v>
       </c>
@@ -23408,7 +23413,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>1033</v>
       </c>
@@ -23449,7 +23454,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>1035</v>
       </c>
@@ -23490,7 +23495,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>1038</v>
       </c>
@@ -23531,7 +23536,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>1041</v>
       </c>
@@ -23572,7 +23577,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>1044</v>
       </c>
@@ -23613,7 +23618,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>1044</v>
       </c>
@@ -23654,7 +23659,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>1048</v>
       </c>
@@ -23695,7 +23700,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>1044</v>
       </c>
@@ -23736,7 +23741,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>1052</v>
       </c>
@@ -23777,7 +23782,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1056</v>
       </c>
@@ -23818,7 +23823,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>1056</v>
       </c>
@@ -23859,7 +23864,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>1056</v>
       </c>
@@ -23900,7 +23905,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>1062</v>
       </c>
@@ -23941,7 +23946,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>1065</v>
       </c>
@@ -23982,7 +23987,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>1068</v>
       </c>
@@ -24023,7 +24028,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>1068</v>
       </c>
@@ -24064,7 +24069,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>1068</v>
       </c>
@@ -24105,7 +24110,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>1073</v>
       </c>
@@ -24146,7 +24151,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>1068</v>
       </c>
@@ -24187,7 +24192,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>1068</v>
       </c>
@@ -24228,7 +24233,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>1073</v>
       </c>
@@ -24269,7 +24274,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>1073</v>
       </c>
@@ -24310,7 +24315,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>1073</v>
       </c>
@@ -24351,7 +24356,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>1080</v>
       </c>
@@ -24392,7 +24397,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>1080</v>
       </c>
@@ -24433,7 +24438,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>1080</v>
       </c>
@@ -24474,7 +24479,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>1080</v>
       </c>
@@ -24515,7 +24520,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>1080</v>
       </c>
@@ -24556,7 +24561,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>1080</v>
       </c>
@@ -24597,7 +24602,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>1090</v>
       </c>
@@ -24638,7 +24643,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>1093</v>
       </c>
@@ -24679,7 +24684,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>1080</v>
       </c>
@@ -24720,7 +24725,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>1090</v>
       </c>
@@ -24761,7 +24766,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>1080</v>
       </c>
@@ -24802,7 +24807,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>1080</v>
       </c>
@@ -24843,7 +24848,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>1080</v>
       </c>
@@ -24884,7 +24889,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>1100</v>
       </c>
@@ -24925,7 +24930,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>1080</v>
       </c>
@@ -24966,7 +24971,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>1100</v>
       </c>
@@ -25007,7 +25012,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>1105</v>
       </c>
@@ -25048,7 +25053,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>1108</v>
       </c>
@@ -25089,7 +25094,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>1111</v>
       </c>
@@ -25130,7 +25135,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>1114</v>
       </c>
@@ -25171,7 +25176,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>1117</v>
       </c>
@@ -25212,7 +25217,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>1120</v>
       </c>
@@ -25253,7 +25258,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>1123</v>
       </c>
@@ -25294,7 +25299,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>1105</v>
       </c>
@@ -25335,7 +25340,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>1127</v>
       </c>
@@ -25376,7 +25381,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>1130</v>
       </c>
@@ -25417,7 +25422,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>1133</v>
       </c>
@@ -25458,7 +25463,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>1111</v>
       </c>
@@ -25499,7 +25504,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>1138</v>
       </c>
@@ -25540,7 +25545,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>1141</v>
       </c>
@@ -25581,7 +25586,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>1144</v>
       </c>
@@ -25622,7 +25627,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1147</v>
       </c>
@@ -25663,7 +25668,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>1150</v>
       </c>
@@ -25704,7 +25709,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>1152</v>
       </c>
@@ -25745,7 +25750,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>1156</v>
       </c>
@@ -25786,7 +25791,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>1158</v>
       </c>
@@ -25827,7 +25832,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>1160</v>
       </c>
@@ -25868,7 +25873,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>1162</v>
       </c>
@@ -25909,7 +25914,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>1164</v>
       </c>
@@ -25950,7 +25955,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>1166</v>
       </c>
@@ -25991,7 +25996,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>1169</v>
       </c>
@@ -26032,7 +26037,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>1171</v>
       </c>
@@ -26073,7 +26078,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>1173</v>
       </c>
@@ -26114,7 +26119,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>1175</v>
       </c>
@@ -26155,7 +26160,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>1177</v>
       </c>
@@ -26196,7 +26201,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>1180</v>
       </c>
@@ -26237,7 +26242,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>1182</v>
       </c>
@@ -26278,7 +26283,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>1184</v>
       </c>
@@ -26319,7 +26324,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>1187</v>
       </c>
@@ -26360,7 +26365,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>1190</v>
       </c>
@@ -26401,7 +26406,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>1193</v>
       </c>
@@ -26442,7 +26447,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>1195</v>
       </c>
@@ -26483,7 +26488,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>1195</v>
       </c>
@@ -26524,7 +26529,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>1198</v>
       </c>
@@ -26565,7 +26570,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>1195</v>
       </c>
@@ -26606,7 +26611,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>1201</v>
       </c>
@@ -26647,7 +26652,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>1195</v>
       </c>
@@ -26688,7 +26693,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>1204</v>
       </c>
@@ -26729,7 +26734,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>1207</v>
       </c>
@@ -26770,7 +26775,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>1210</v>
       </c>
@@ -26811,7 +26816,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>1195</v>
       </c>
@@ -26852,7 +26857,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>1198</v>
       </c>
@@ -26893,7 +26898,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>1190</v>
       </c>
@@ -26934,7 +26939,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>1219</v>
       </c>
@@ -26975,7 +26980,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>1222</v>
       </c>
@@ -27016,7 +27021,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>1226</v>
       </c>
@@ -27057,7 +27062,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>1229</v>
       </c>
@@ -27098,7 +27103,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>1232</v>
       </c>
@@ -27139,7 +27144,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>1229</v>
       </c>
@@ -27180,7 +27185,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>1237</v>
       </c>
@@ -27221,7 +27226,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1229</v>
       </c>
@@ -27262,7 +27267,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>1242</v>
       </c>
@@ -27303,7 +27308,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>1245</v>
       </c>
@@ -27344,7 +27349,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>1248</v>
       </c>
@@ -27385,7 +27390,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>1251</v>
       </c>
@@ -27426,7 +27431,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>1253</v>
       </c>
@@ -27467,7 +27472,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>1256</v>
       </c>
@@ -27508,7 +27513,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1258</v>
       </c>
@@ -27549,7 +27554,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>1260</v>
       </c>
@@ -27590,7 +27595,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>1263</v>
       </c>
@@ -27631,7 +27636,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>1267</v>
       </c>
@@ -27672,7 +27677,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>1270</v>
       </c>
@@ -27713,7 +27718,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>1273</v>
       </c>
@@ -27754,7 +27759,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>1276</v>
       </c>
@@ -27795,7 +27800,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>1279</v>
       </c>
@@ -27836,7 +27841,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>1281</v>
       </c>
@@ -27877,7 +27882,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>1283</v>
       </c>
@@ -27918,7 +27923,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>1286</v>
       </c>
@@ -27959,7 +27964,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>1288</v>
       </c>
@@ -28000,7 +28005,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>1290</v>
       </c>
@@ -28041,7 +28046,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>1292</v>
       </c>
@@ -28082,7 +28087,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>1294</v>
       </c>
@@ -28123,7 +28128,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>1296</v>
       </c>
@@ -28164,7 +28169,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>1298</v>
       </c>
@@ -28205,7 +28210,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>1300</v>
       </c>
@@ -28246,7 +28251,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>1302</v>
       </c>
@@ -28287,7 +28292,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>1306</v>
       </c>
@@ -28328,7 +28333,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>1308</v>
       </c>
@@ -28369,7 +28374,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>1311</v>
       </c>
@@ -28410,7 +28415,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>1314</v>
       </c>
@@ -28451,7 +28456,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>1317</v>
       </c>
@@ -28492,7 +28497,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>1320</v>
       </c>
@@ -28533,7 +28538,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>1323</v>
       </c>
@@ -28574,7 +28579,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>1326</v>
       </c>
@@ -28615,7 +28620,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>1329</v>
       </c>
@@ -28656,7 +28661,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>1331</v>
       </c>
@@ -28697,7 +28702,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>1334</v>
       </c>
